--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H2">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N2">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q2">
-        <v>0.2758141214015556</v>
+        <v>0.7691618367599998</v>
       </c>
       <c r="R2">
-        <v>2.482327092614001</v>
+        <v>6.922456530839999</v>
       </c>
       <c r="S2">
-        <v>0.03841780700199139</v>
+        <v>0.07150130876290242</v>
       </c>
       <c r="T2">
-        <v>0.03841780700199139</v>
+        <v>0.07150130876290242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H3">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N3">
         <v>17.384667</v>
       </c>
       <c r="O3">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P3">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q3">
-        <v>2.655335969209666</v>
+        <v>4.116580974338667</v>
       </c>
       <c r="R3">
-        <v>23.898023722887</v>
+        <v>37.049228769048</v>
       </c>
       <c r="S3">
-        <v>0.3698584549339443</v>
+        <v>0.382677498058866</v>
       </c>
       <c r="T3">
-        <v>0.3698584549339444</v>
+        <v>0.382677498058866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H4">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N4">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O4">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P4">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q4">
-        <v>1.700082512908556</v>
+        <v>2.815118801616889</v>
       </c>
       <c r="R4">
-        <v>15.300742616177</v>
+        <v>25.336069214552</v>
       </c>
       <c r="S4">
-        <v>0.2368023853763894</v>
+        <v>0.2616935331666325</v>
       </c>
       <c r="T4">
-        <v>0.2368023853763894</v>
+        <v>0.2616935331666325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H5">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N5">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q5">
-        <v>0.1683260175291111</v>
+        <v>0.4496773038444444</v>
       </c>
       <c r="R5">
-        <v>1.514934157762</v>
+        <v>4.0470957346</v>
       </c>
       <c r="S5">
-        <v>0.02344592228268243</v>
+        <v>0.04180201644076575</v>
       </c>
       <c r="T5">
-        <v>0.02344592228268243</v>
+        <v>0.04180201644076575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.6816</v>
       </c>
       <c r="I6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N6">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O6">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P6">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q6">
-        <v>0.1367572842666667</v>
+        <v>0.245999664</v>
       </c>
       <c r="R6">
-        <v>1.2308155584</v>
+        <v>2.213996976</v>
       </c>
       <c r="S6">
-        <v>0.01904875256703822</v>
+        <v>0.02286813657490732</v>
       </c>
       <c r="T6">
-        <v>0.01904875256703822</v>
+        <v>0.02286813657490732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6816</v>
       </c>
       <c r="I7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N7">
         <v>17.384667</v>
       </c>
       <c r="O7">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P7">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q7">
         <v>1.3165987808</v>
@@ -883,10 +883,10 @@
         <v>11.8493890272</v>
       </c>
       <c r="S7">
-        <v>0.1833874117931449</v>
+        <v>0.1223910644597095</v>
       </c>
       <c r="T7">
-        <v>0.183387411793145</v>
+        <v>0.1223910644597095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.6816</v>
       </c>
       <c r="I8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N8">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O8">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P8">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q8">
-        <v>0.8429541834666665</v>
+        <v>0.9003544458666667</v>
       </c>
       <c r="R8">
-        <v>7.586587651199999</v>
+        <v>8.103190012800001</v>
       </c>
       <c r="S8">
-        <v>0.117414043078655</v>
+        <v>0.08369697787027847</v>
       </c>
       <c r="T8">
-        <v>0.117414043078655</v>
+        <v>0.08369697787027845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.6816</v>
       </c>
       <c r="I9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N9">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O9">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P9">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q9">
-        <v>0.08346131413333333</v>
+        <v>0.1438194933333333</v>
       </c>
       <c r="R9">
-        <v>0.7511518272</v>
+        <v>1.29437544</v>
       </c>
       <c r="S9">
-        <v>0.01162522296615409</v>
+        <v>0.01336946466593808</v>
       </c>
       <c r="T9">
-        <v>0.01162522296615409</v>
+        <v>0.01336946466593808</v>
       </c>
     </row>
   </sheetData>
